--- a/BASIC EXCEL ASSIGNMENT 1.xlsx
+++ b/BASIC EXCEL ASSIGNMENT 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="22980" windowHeight="9552" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="22980" windowHeight="9552"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -123,10 +123,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total price of car and bicycle is: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q.3 Using the data below, write a formula to calculate the average sales of items priced 
-above 100 but less than 300. </t>
   </si>
   <si>
     <t>ITEM</t>
@@ -485,6 +481,9 @@
   <si>
     <t>Q.8 Insert a line chart showing daily sales trend.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Q.3 Using the data below, write a formula to calculate the average sales of items priced above 100 but less than 300. </t>
+  </si>
 </sst>
 </file>
 
@@ -493,7 +492,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +551,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -703,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -772,6 +779,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -784,26 +803,20 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,11 +920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161160192"/>
-        <c:axId val="164811904"/>
+        <c:axId val="160790400"/>
+        <c:axId val="161157120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161160192"/>
+        <c:axId val="160790400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164811904"/>
+        <c:crossAx val="161157120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -928,7 +941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164811904"/>
+        <c:axId val="161157120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161160192"/>
+        <c:crossAx val="160790400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1323,11 +1336,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161175808"/>
-        <c:axId val="171393408"/>
+        <c:axId val="165225600"/>
+        <c:axId val="165227136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161175808"/>
+        <c:axId val="165225600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,7 +1349,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171393408"/>
+        <c:crossAx val="165227136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1344,7 +1357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171393408"/>
+        <c:axId val="165227136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,7 +1367,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161175808"/>
+        <c:crossAx val="165225600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1765,9 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1935,24 +1946,24 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -2026,16 +2037,16 @@
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2082,12 +2093,12 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="16"/>
       <c r="J13" s="14"/>
     </row>
@@ -2103,39 +2114,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:18" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>35</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -2146,9 +2166,9 @@
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="25">
         <v>90</v>
@@ -2165,9 +2185,9 @@
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="25">
         <v>150</v>
@@ -2184,9 +2204,9 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="25">
         <v>250</v>
@@ -2203,7 +2223,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
     </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>3</v>
       </c>
@@ -2219,23 +2239,23 @@
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -2249,7 +2269,7 @@
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
     </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -2266,27 +2286,27 @@
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
     </row>
-    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
+    <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2298,7 +2318,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2307,43 +2327,43 @@
     <col min="7" max="7" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+    <row r="1" spans="1:12" s="59" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>49</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
@@ -2356,13 +2376,13 @@
         <v>1001</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E4" s="29">
         <v>10</v>
@@ -2389,13 +2409,13 @@
         <v>1002</v>
       </c>
       <c r="B5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E5" s="29">
         <v>20</v>
@@ -2409,7 +2429,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="32"/>
       <c r="J5" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="34"/>
@@ -2419,13 +2439,13 @@
         <v>1003</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E6" s="29">
         <v>15</v>
@@ -2447,13 +2467,13 @@
         <v>1004</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>60</v>
-      </c>
       <c r="D7" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="29">
         <v>5</v>
@@ -2475,13 +2495,13 @@
         <v>1005</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>62</v>
       </c>
       <c r="E8" s="29">
         <v>30</v>
@@ -2503,13 +2523,13 @@
         <v>1006</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="29">
         <v>12</v>
@@ -2531,13 +2551,13 @@
         <v>1007</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>65</v>
       </c>
       <c r="E10" s="29">
         <v>25</v>
@@ -2546,7 +2566,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
@@ -2559,13 +2579,13 @@
         <v>1008</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="29">
         <v>18</v>
@@ -2574,7 +2594,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -2587,13 +2607,13 @@
         <v>1009</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="29">
         <v>22</v>
@@ -2602,7 +2622,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -2615,13 +2635,13 @@
         <v>1010</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="29">
         <v>8</v>
@@ -2630,7 +2650,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -2643,13 +2663,13 @@
         <v>1011</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="29">
         <v>40</v>
@@ -2658,7 +2678,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -2671,13 +2691,13 @@
         <v>1012</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="29">
         <v>35</v>
@@ -2686,7 +2706,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2694,13 +2714,13 @@
         <v>1013</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E16" s="29">
         <v>14</v>
@@ -2709,7 +2729,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2717,13 +2737,13 @@
         <v>1014</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E17" s="29">
         <v>28</v>
@@ -2732,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -2740,13 +2760,13 @@
         <v>1015</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E18" s="29">
         <v>12</v>
@@ -2755,7 +2775,7 @@
         <v>25</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2763,13 +2783,13 @@
         <v>1016</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="29">
         <v>25</v>
@@ -2778,7 +2798,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2786,13 +2806,13 @@
         <v>1017</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="29">
         <v>20</v>
@@ -2801,7 +2821,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2809,13 +2829,13 @@
         <v>1018</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="29">
         <v>10</v>
@@ -2824,7 +2844,7 @@
         <v>50</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2832,13 +2852,13 @@
         <v>1019</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="29">
         <v>15</v>
@@ -2847,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -2855,13 +2875,13 @@
         <v>1020</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="29">
         <v>18</v>
@@ -2878,13 +2898,13 @@
         <v>1021</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E24" s="29">
         <v>9</v>
@@ -2901,13 +2921,13 @@
         <v>1022</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="29">
         <v>35</v>
@@ -2924,13 +2944,13 @@
         <v>1023</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="29">
         <v>30</v>
@@ -2947,13 +2967,13 @@
         <v>1024</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="29">
         <v>11</v>
@@ -2970,13 +2990,13 @@
         <v>1025</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="29">
         <v>14</v>
@@ -2993,13 +3013,13 @@
         <v>1026</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="29">
         <v>16</v>
@@ -3016,13 +3036,13 @@
         <v>1027</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="29">
         <v>22</v>
@@ -3039,13 +3059,13 @@
         <v>1028</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="29">
         <v>27</v>
@@ -3062,13 +3082,13 @@
         <v>1029</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E32" s="29">
         <v>13</v>
@@ -3085,13 +3105,13 @@
         <v>1030</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E33" s="29">
         <v>32</v>
@@ -3100,7 +3120,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -3108,13 +3128,13 @@
         <v>1031</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E34" s="29">
         <v>10</v>
@@ -3123,7 +3143,7 @@
         <v>25</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -3131,13 +3151,13 @@
         <v>1032</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="29">
         <v>18</v>
@@ -3146,7 +3166,7 @@
         <v>5</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -3154,13 +3174,13 @@
         <v>1033</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="29">
         <v>22</v>
@@ -3169,7 +3189,7 @@
         <v>8</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3177,13 +3197,13 @@
         <v>1034</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="29">
         <v>17</v>
@@ -3192,7 +3212,7 @@
         <v>50</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -3200,13 +3220,13 @@
         <v>1035</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="29">
         <v>19</v>
@@ -3215,7 +3235,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3223,13 +3243,13 @@
         <v>1036</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E39" s="29">
         <v>15</v>
@@ -3238,7 +3258,7 @@
         <v>25</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -3246,13 +3266,13 @@
         <v>1037</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" s="29">
         <v>28</v>
@@ -3261,7 +3281,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -3269,13 +3289,13 @@
         <v>1038</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="29">
         <v>24</v>
@@ -3284,7 +3304,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -3292,13 +3312,13 @@
         <v>1039</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="29">
         <v>16</v>
@@ -3307,7 +3327,7 @@
         <v>50</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -3315,13 +3335,13 @@
         <v>1040</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" s="29">
         <v>27</v>
@@ -3330,7 +3350,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -3338,13 +3358,13 @@
         <v>1041</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44" s="29">
         <v>21</v>
@@ -3353,7 +3373,7 @@
         <v>25</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -3361,13 +3381,13 @@
         <v>1042</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E45" s="29">
         <v>30</v>
@@ -3376,7 +3396,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -3384,13 +3404,13 @@
         <v>1043</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" s="29">
         <v>26</v>
@@ -3407,13 +3427,13 @@
         <v>1044</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="29">
         <v>14</v>
@@ -3430,13 +3450,13 @@
         <v>1045</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" s="29">
         <v>20</v>
@@ -3453,13 +3473,13 @@
         <v>1046</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E49" s="29">
         <v>17</v>
@@ -3476,13 +3496,13 @@
         <v>1047</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E50" s="29">
         <v>19</v>
@@ -3499,13 +3519,13 @@
         <v>1048</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="29">
         <v>32</v>
@@ -3522,13 +3542,13 @@
         <v>1049</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C52" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E52" s="29">
         <v>12</v>
@@ -3545,13 +3565,13 @@
         <v>1050</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E53" s="29">
         <v>25</v>
@@ -3576,7 +3596,7 @@
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3587,48 +3607,48 @@
     <col min="14" max="14" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+    <row r="1" spans="1:14" s="59" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>49</v>
       </c>
       <c r="H3" s="35"/>
       <c r="J3" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>137</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -3636,13 +3656,13 @@
         <v>1001</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E4" s="29">
         <v>10</v>
@@ -3665,13 +3685,13 @@
         <v>1002</v>
       </c>
       <c r="B5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E5" s="29">
         <v>20</v>
@@ -3693,13 +3713,13 @@
         <v>1003</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E6" s="29">
         <v>15</v>
@@ -3721,13 +3741,13 @@
         <v>1004</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>60</v>
-      </c>
       <c r="D7" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="29">
         <v>5</v>
@@ -3752,13 +3772,13 @@
         <v>1005</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>62</v>
       </c>
       <c r="E8" s="29">
         <v>30</v>
@@ -3781,13 +3801,13 @@
         <v>1006</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="29">
         <v>12</v>
@@ -3810,13 +3830,13 @@
         <v>1007</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>65</v>
       </c>
       <c r="E10" s="29">
         <v>25</v>
@@ -3825,7 +3845,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="35"/>
       <c r="K10" s="35">
@@ -3839,13 +3859,13 @@
         <v>1008</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="29">
         <v>18</v>
@@ -3854,7 +3874,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="35"/>
       <c r="K11" s="35">
@@ -3863,7 +3883,7 @@
       </c>
       <c r="L11" s="35"/>
       <c r="N11" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -3871,13 +3891,13 @@
         <v>1009</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="29">
         <v>22</v>
@@ -3886,7 +3906,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="35"/>
       <c r="K12" s="35">
@@ -3900,13 +3920,13 @@
         <v>1010</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="29">
         <v>8</v>
@@ -3915,7 +3935,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="35"/>
       <c r="K13" s="35">
@@ -3929,13 +3949,13 @@
         <v>1011</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="29">
         <v>40</v>
@@ -3944,7 +3964,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="35"/>
       <c r="K14" s="35">
@@ -3958,13 +3978,13 @@
         <v>1012</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="29">
         <v>35</v>
@@ -3973,7 +3993,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" s="35"/>
       <c r="K15" s="35">
@@ -3987,13 +4007,13 @@
         <v>1013</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E16" s="29">
         <v>14</v>
@@ -4002,7 +4022,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" s="35"/>
       <c r="K16" s="35">
@@ -4016,13 +4036,13 @@
         <v>1014</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E17" s="29">
         <v>28</v>
@@ -4031,7 +4051,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="35"/>
       <c r="K17" s="35">
@@ -4045,13 +4065,13 @@
         <v>1015</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E18" s="29">
         <v>12</v>
@@ -4060,7 +4080,7 @@
         <v>25</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="35"/>
       <c r="K18" s="35">
@@ -4074,13 +4094,13 @@
         <v>1016</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="29">
         <v>25</v>
@@ -4089,7 +4109,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="35"/>
       <c r="K19" s="35">
@@ -4103,13 +4123,13 @@
         <v>1017</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="29">
         <v>20</v>
@@ -4118,7 +4138,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H20" s="35"/>
       <c r="K20" s="35">
@@ -4132,13 +4152,13 @@
         <v>1018</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="29">
         <v>10</v>
@@ -4147,7 +4167,7 @@
         <v>50</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="35"/>
       <c r="K21" s="35">
@@ -4161,13 +4181,13 @@
         <v>1019</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="29">
         <v>15</v>
@@ -4176,7 +4196,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H22" s="35"/>
       <c r="K22" s="35">
@@ -4190,13 +4210,13 @@
         <v>1020</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="29">
         <v>18</v>
@@ -4219,13 +4239,13 @@
         <v>1021</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E24" s="29">
         <v>9</v>
@@ -4248,13 +4268,13 @@
         <v>1022</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="29">
         <v>35</v>
@@ -4277,13 +4297,13 @@
         <v>1023</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="29">
         <v>30</v>
@@ -4306,13 +4326,13 @@
         <v>1024</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="29">
         <v>11</v>
@@ -4335,13 +4355,13 @@
         <v>1025</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="29">
         <v>14</v>
@@ -4364,13 +4384,13 @@
         <v>1026</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="29">
         <v>16</v>
@@ -4393,13 +4413,13 @@
         <v>1027</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="29">
         <v>22</v>
@@ -4422,13 +4442,13 @@
         <v>1028</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="29">
         <v>27</v>
@@ -4451,13 +4471,13 @@
         <v>1029</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E32" s="29">
         <v>13</v>
@@ -4480,13 +4500,13 @@
         <v>1030</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E33" s="29">
         <v>32</v>
@@ -4495,7 +4515,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H33" s="35"/>
       <c r="K33" s="35">
@@ -4509,13 +4529,13 @@
         <v>1031</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E34" s="29">
         <v>10</v>
@@ -4524,7 +4544,7 @@
         <v>25</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H34" s="35"/>
       <c r="K34" s="35">
@@ -4538,13 +4558,13 @@
         <v>1032</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="29">
         <v>18</v>
@@ -4553,7 +4573,7 @@
         <v>5</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H35" s="35"/>
       <c r="K35" s="35">
@@ -4567,13 +4587,13 @@
         <v>1033</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="29">
         <v>22</v>
@@ -4582,7 +4602,7 @@
         <v>8</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H36" s="35"/>
       <c r="K36" s="35">
@@ -4596,13 +4616,13 @@
         <v>1034</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="29">
         <v>17</v>
@@ -4611,7 +4631,7 @@
         <v>50</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H37" s="35"/>
       <c r="K37" s="35">
@@ -4625,13 +4645,13 @@
         <v>1035</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="29">
         <v>19</v>
@@ -4640,7 +4660,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H38" s="35"/>
       <c r="K38" s="35">
@@ -4654,13 +4674,13 @@
         <v>1036</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E39" s="29">
         <v>15</v>
@@ -4669,7 +4689,7 @@
         <v>25</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H39" s="35"/>
       <c r="K39" s="35">
@@ -4683,13 +4703,13 @@
         <v>1037</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" s="29">
         <v>28</v>
@@ -4698,7 +4718,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H40" s="35"/>
       <c r="K40" s="35">
@@ -4712,13 +4732,13 @@
         <v>1038</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="29">
         <v>24</v>
@@ -4727,7 +4747,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H41" s="35"/>
       <c r="K41" s="35">
@@ -4741,13 +4761,13 @@
         <v>1039</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="29">
         <v>16</v>
@@ -4756,7 +4776,7 @@
         <v>50</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H42" s="35"/>
       <c r="K42" s="35">
@@ -4770,13 +4790,13 @@
         <v>1040</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" s="29">
         <v>27</v>
@@ -4785,7 +4805,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H43" s="35"/>
       <c r="K43" s="35">
@@ -4799,13 +4819,13 @@
         <v>1041</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44" s="29">
         <v>21</v>
@@ -4814,7 +4834,7 @@
         <v>25</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H44" s="35"/>
       <c r="K44" s="35">
@@ -4828,13 +4848,13 @@
         <v>1042</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E45" s="29">
         <v>30</v>
@@ -4843,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H45" s="35"/>
       <c r="K45" s="35">
@@ -4857,13 +4877,13 @@
         <v>1043</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" s="29">
         <v>26</v>
@@ -4886,13 +4906,13 @@
         <v>1044</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="29">
         <v>14</v>
@@ -4915,13 +4935,13 @@
         <v>1045</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" s="29">
         <v>20</v>
@@ -4944,13 +4964,13 @@
         <v>1046</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E49" s="29">
         <v>17</v>
@@ -4973,13 +4993,13 @@
         <v>1047</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E50" s="29">
         <v>19</v>
@@ -5002,13 +5022,13 @@
         <v>1048</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="29">
         <v>32</v>
@@ -5031,13 +5051,13 @@
         <v>1049</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C52" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E52" s="29">
         <v>12</v>
@@ -5060,13 +5080,13 @@
         <v>1050</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E53" s="29">
         <v>25</v>
@@ -5117,7 +5137,7 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5128,52 +5148,52 @@
     <col min="14" max="14" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="38"/>
-      <c r="B1" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+    <row r="1" spans="1:16" s="59" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="60"/>
+      <c r="B1" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="C5" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="D5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="E5" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="F5" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="G5" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="H5" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="42">
         <f>SUMIFS(H6:H55,C6:C55,"North",D6:D55,"Notebook")</f>
         <v>2900</v>
       </c>
@@ -5184,13 +5204,13 @@
         <v>1001</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E6" s="29">
         <v>10</v>
@@ -5214,13 +5234,13 @@
         <v>1002</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E7" s="29">
         <v>20</v>
@@ -5244,13 +5264,13 @@
         <v>1003</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E8" s="29">
         <v>15</v>
@@ -5274,13 +5294,13 @@
         <v>1004</v>
       </c>
       <c r="B9" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>60</v>
-      </c>
       <c r="D9" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="29">
         <v>5</v>
@@ -5304,13 +5324,13 @@
         <v>1005</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>61</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>62</v>
       </c>
       <c r="E10" s="29">
         <v>30</v>
@@ -5334,13 +5354,13 @@
         <v>1006</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="29">
         <v>12</v>
@@ -5364,13 +5384,13 @@
         <v>1007</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>65</v>
       </c>
       <c r="E12" s="29">
         <v>25</v>
@@ -5379,18 +5399,18 @@
         <v>8</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="41">
         <v>200</v>
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="48"/>
+      <c r="K12" s="43"/>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
-      <c r="N12" s="49" t="s">
-        <v>142</v>
+      <c r="N12" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
@@ -5400,13 +5420,13 @@
         <v>1008</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="29">
         <v>18</v>
@@ -5415,7 +5435,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="41">
         <v>180</v>
@@ -5430,13 +5450,13 @@
         <v>1009</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="29">
         <v>22</v>
@@ -5445,7 +5465,7 @@
         <v>25</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="41">
         <v>550</v>
@@ -5460,13 +5480,13 @@
         <v>1010</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="29">
         <v>8</v>
@@ -5475,7 +5495,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="41">
         <v>400</v>
@@ -5486,13 +5506,13 @@
         <v>1011</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="29">
         <v>40</v>
@@ -5501,7 +5521,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="41">
         <v>200</v>
@@ -5512,13 +5532,13 @@
         <v>1012</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="29">
         <v>35</v>
@@ -5527,7 +5547,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="41">
         <v>280</v>
@@ -5538,13 +5558,13 @@
         <v>1013</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E18" s="29">
         <v>14</v>
@@ -5553,7 +5573,7 @@
         <v>50</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="41">
         <v>700</v>
@@ -5564,13 +5584,13 @@
         <v>1014</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E19" s="29">
         <v>28</v>
@@ -5579,7 +5599,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" s="41">
         <v>280</v>
@@ -5590,13 +5610,13 @@
         <v>1015</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E20" s="29">
         <v>12</v>
@@ -5605,7 +5625,7 @@
         <v>25</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="41">
         <v>300</v>
@@ -5616,13 +5636,13 @@
         <v>1016</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="29">
         <v>25</v>
@@ -5631,7 +5651,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="41">
         <v>125</v>
@@ -5642,13 +5662,13 @@
         <v>1017</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="29">
         <v>20</v>
@@ -5657,7 +5677,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H22" s="41">
         <v>160</v>
@@ -5668,13 +5688,13 @@
         <v>1018</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="29">
         <v>10</v>
@@ -5683,7 +5703,7 @@
         <v>50</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H23" s="41">
         <v>500</v>
@@ -5694,13 +5714,13 @@
         <v>1019</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="29">
         <v>15</v>
@@ -5709,7 +5729,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24" s="41">
         <v>150</v>
@@ -5720,13 +5740,13 @@
         <v>1020</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="29">
         <v>18</v>
@@ -5746,13 +5766,13 @@
         <v>1021</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E26" s="29">
         <v>9</v>
@@ -5772,13 +5792,13 @@
         <v>1022</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="29">
         <v>35</v>
@@ -5798,13 +5818,13 @@
         <v>1023</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="29">
         <v>30</v>
@@ -5824,13 +5844,13 @@
         <v>1024</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="29">
         <v>11</v>
@@ -5850,13 +5870,13 @@
         <v>1025</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="29">
         <v>14</v>
@@ -5876,13 +5896,13 @@
         <v>1026</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" s="29">
         <v>16</v>
@@ -5902,13 +5922,13 @@
         <v>1027</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="29">
         <v>22</v>
@@ -5928,13 +5948,13 @@
         <v>1028</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="29">
         <v>27</v>
@@ -5954,13 +5974,13 @@
         <v>1029</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E34" s="29">
         <v>13</v>
@@ -5980,13 +6000,13 @@
         <v>1030</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E35" s="29">
         <v>32</v>
@@ -5995,7 +6015,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H35" s="41">
         <v>320</v>
@@ -6006,13 +6026,13 @@
         <v>1031</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E36" s="29">
         <v>10</v>
@@ -6021,7 +6041,7 @@
         <v>25</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H36" s="41">
         <v>250</v>
@@ -6032,13 +6052,13 @@
         <v>1032</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" s="29">
         <v>18</v>
@@ -6047,7 +6067,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H37" s="41">
         <v>90</v>
@@ -6058,13 +6078,13 @@
         <v>1033</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="29">
         <v>22</v>
@@ -6073,7 +6093,7 @@
         <v>8</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H38" s="41">
         <v>176</v>
@@ -6084,13 +6104,13 @@
         <v>1034</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="29">
         <v>17</v>
@@ -6099,7 +6119,7 @@
         <v>50</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H39" s="41">
         <v>850</v>
@@ -6110,13 +6130,13 @@
         <v>1035</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="29">
         <v>19</v>
@@ -6125,7 +6145,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H40" s="41">
         <v>190</v>
@@ -6136,13 +6156,13 @@
         <v>1036</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" s="29">
         <v>15</v>
@@ -6151,7 +6171,7 @@
         <v>25</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H41" s="41">
         <v>375</v>
@@ -6162,13 +6182,13 @@
         <v>1037</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E42" s="29">
         <v>28</v>
@@ -6177,7 +6197,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H42" s="41">
         <v>140</v>
@@ -6188,13 +6208,13 @@
         <v>1038</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43" s="29">
         <v>24</v>
@@ -6203,7 +6223,7 @@
         <v>8</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H43" s="41">
         <v>192</v>
@@ -6214,13 +6234,13 @@
         <v>1039</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" s="29">
         <v>16</v>
@@ -6229,7 +6249,7 @@
         <v>50</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H44" s="41">
         <v>800</v>
@@ -6240,13 +6260,13 @@
         <v>1040</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E45" s="29">
         <v>27</v>
@@ -6255,7 +6275,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H45" s="41">
         <v>270</v>
@@ -6266,13 +6286,13 @@
         <v>1041</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E46" s="29">
         <v>21</v>
@@ -6281,7 +6301,7 @@
         <v>25</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H46" s="41">
         <v>525</v>
@@ -6292,13 +6312,13 @@
         <v>1042</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E47" s="29">
         <v>30</v>
@@ -6307,7 +6327,7 @@
         <v>5</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H47" s="41">
         <v>150</v>
@@ -6318,13 +6338,13 @@
         <v>1043</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="29">
         <v>26</v>
@@ -6344,13 +6364,13 @@
         <v>1044</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E49" s="29">
         <v>14</v>
@@ -6370,13 +6390,13 @@
         <v>1045</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50" s="29">
         <v>20</v>
@@ -6396,13 +6416,13 @@
         <v>1046</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" s="29">
         <v>17</v>
@@ -6422,13 +6442,13 @@
         <v>1047</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E52" s="29">
         <v>19</v>
@@ -6448,13 +6468,13 @@
         <v>1048</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53" s="29">
         <v>32</v>
@@ -6474,13 +6494,13 @@
         <v>1049</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E54" s="29">
         <v>12</v>
@@ -6500,13 +6520,13 @@
         <v>1050</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E55" s="29">
         <v>25</v>
@@ -6534,7 +6554,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6544,18 +6564,17 @@
     <col min="13" max="13" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="38"/>
-      <c r="B1" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+    <row r="1" spans="1:13" s="55" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
@@ -6581,38 +6600,38 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="H4" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I4" s="38"/>
-      <c r="J4" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="54" t="s">
-        <v>144</v>
+      <c r="J4" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -6620,13 +6639,13 @@
         <v>1001</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E5" s="29">
         <v>10</v>
@@ -6642,7 +6661,7 @@
       </c>
       <c r="I5" s="38"/>
       <c r="L5" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" s="3">
         <f>SUMIF(D5:D54,"Notebook",H5:H54)</f>
@@ -6654,13 +6673,13 @@
         <v>1002</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E6" s="29">
         <v>20</v>
@@ -6676,7 +6695,7 @@
       </c>
       <c r="I6" s="38"/>
       <c r="L6" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" s="3">
         <f>SUMIF(D5:D54,"Pen",H5:H54)</f>
@@ -6688,13 +6707,13 @@
         <v>1003</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E7" s="29">
         <v>15</v>
@@ -6710,7 +6729,7 @@
       </c>
       <c r="I7" s="38"/>
       <c r="L7" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M7" s="3">
         <f>SUMIF(D5:D54,"Marker",H5:H54)</f>
@@ -6722,13 +6741,13 @@
         <v>1004</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>60</v>
-      </c>
       <c r="D8" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="29">
         <v>5</v>
@@ -6744,7 +6763,7 @@
       </c>
       <c r="I8" s="38"/>
       <c r="L8" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M8" s="3">
         <f>SUMIF(D5:D54,"Pencil",H5:H54)</f>
@@ -6756,13 +6775,13 @@
         <v>1005</v>
       </c>
       <c r="B9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>62</v>
       </c>
       <c r="E9" s="29">
         <v>30</v>
@@ -6778,7 +6797,7 @@
       </c>
       <c r="I9" s="38"/>
       <c r="L9" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M9" s="3">
         <f>SUMIF(D5:D54,"Eraser",H5:H54)</f>
@@ -6790,13 +6809,13 @@
         <v>1006</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="29">
         <v>12</v>
@@ -6817,13 +6836,13 @@
         <v>1007</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>65</v>
       </c>
       <c r="E11" s="29">
         <v>25</v>
@@ -6832,7 +6851,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="41">
         <v>200</v>
@@ -6844,13 +6863,13 @@
         <v>1008</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="29">
         <v>18</v>
@@ -6859,7 +6878,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="41">
         <v>180</v>
@@ -6871,13 +6890,13 @@
         <v>1009</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="29">
         <v>22</v>
@@ -6886,7 +6905,7 @@
         <v>25</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="41">
         <v>550</v>
@@ -6898,13 +6917,13 @@
         <v>1010</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="29">
         <v>8</v>
@@ -6913,7 +6932,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="41">
         <v>400</v>
@@ -6925,13 +6944,13 @@
         <v>1011</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="29">
         <v>40</v>
@@ -6940,7 +6959,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="41">
         <v>200</v>
@@ -6952,13 +6971,13 @@
         <v>1012</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="29">
         <v>35</v>
@@ -6967,7 +6986,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="41">
         <v>280</v>
@@ -6979,13 +6998,13 @@
         <v>1013</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E17" s="29">
         <v>14</v>
@@ -6994,7 +7013,7 @@
         <v>50</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="41">
         <v>700</v>
@@ -7006,13 +7025,13 @@
         <v>1014</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E18" s="29">
         <v>28</v>
@@ -7021,7 +7040,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" s="41">
         <v>280</v>
@@ -7033,13 +7052,13 @@
         <v>1015</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E19" s="29">
         <v>12</v>
@@ -7048,7 +7067,7 @@
         <v>25</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H19" s="41">
         <v>300</v>
@@ -7060,13 +7079,13 @@
         <v>1016</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="29">
         <v>25</v>
@@ -7075,7 +7094,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="41">
         <v>125</v>
@@ -7087,13 +7106,13 @@
         <v>1017</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="29">
         <v>20</v>
@@ -7102,7 +7121,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H21" s="41">
         <v>160</v>
@@ -7114,13 +7133,13 @@
         <v>1018</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="29">
         <v>10</v>
@@ -7129,7 +7148,7 @@
         <v>50</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H22" s="41">
         <v>500</v>
@@ -7141,13 +7160,13 @@
         <v>1019</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="29">
         <v>15</v>
@@ -7156,7 +7175,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H23" s="41">
         <v>150</v>
@@ -7168,13 +7187,13 @@
         <v>1020</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="29">
         <v>18</v>
@@ -7195,13 +7214,13 @@
         <v>1021</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E25" s="29">
         <v>9</v>
@@ -7222,13 +7241,13 @@
         <v>1022</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="29">
         <v>35</v>
@@ -7249,13 +7268,13 @@
         <v>1023</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="29">
         <v>30</v>
@@ -7276,13 +7295,13 @@
         <v>1024</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="29">
         <v>11</v>
@@ -7303,13 +7322,13 @@
         <v>1025</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="29">
         <v>14</v>
@@ -7330,13 +7349,13 @@
         <v>1026</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="29">
         <v>16</v>
@@ -7357,13 +7376,13 @@
         <v>1027</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" s="29">
         <v>22</v>
@@ -7384,13 +7403,13 @@
         <v>1028</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="29">
         <v>27</v>
@@ -7411,13 +7430,13 @@
         <v>1029</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E33" s="29">
         <v>13</v>
@@ -7438,13 +7457,13 @@
         <v>1030</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E34" s="29">
         <v>32</v>
@@ -7453,7 +7472,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H34" s="41">
         <v>320</v>
@@ -7465,13 +7484,13 @@
         <v>1031</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E35" s="29">
         <v>10</v>
@@ -7480,7 +7499,7 @@
         <v>25</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H35" s="41">
         <v>250</v>
@@ -7492,13 +7511,13 @@
         <v>1032</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" s="29">
         <v>18</v>
@@ -7507,7 +7526,7 @@
         <v>5</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H36" s="41">
         <v>90</v>
@@ -7519,13 +7538,13 @@
         <v>1033</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="29">
         <v>22</v>
@@ -7534,7 +7553,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H37" s="41">
         <v>176</v>
@@ -7546,13 +7565,13 @@
         <v>1034</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="29">
         <v>17</v>
@@ -7561,7 +7580,7 @@
         <v>50</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H38" s="41">
         <v>850</v>
@@ -7573,13 +7592,13 @@
         <v>1035</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" s="29">
         <v>19</v>
@@ -7588,7 +7607,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H39" s="41">
         <v>190</v>
@@ -7600,13 +7619,13 @@
         <v>1036</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" s="29">
         <v>15</v>
@@ -7615,7 +7634,7 @@
         <v>25</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H40" s="41">
         <v>375</v>
@@ -7627,13 +7646,13 @@
         <v>1037</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" s="29">
         <v>28</v>
@@ -7642,7 +7661,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H41" s="41">
         <v>140</v>
@@ -7654,13 +7673,13 @@
         <v>1038</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="29">
         <v>24</v>
@@ -7669,7 +7688,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H42" s="41">
         <v>192</v>
@@ -7681,13 +7700,13 @@
         <v>1039</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="29">
         <v>16</v>
@@ -7696,7 +7715,7 @@
         <v>50</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H43" s="41">
         <v>800</v>
@@ -7708,13 +7727,13 @@
         <v>1040</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E44" s="29">
         <v>27</v>
@@ -7723,7 +7742,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H44" s="41">
         <v>270</v>
@@ -7735,13 +7754,13 @@
         <v>1041</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E45" s="29">
         <v>21</v>
@@ -7750,7 +7769,7 @@
         <v>25</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H45" s="41">
         <v>525</v>
@@ -7762,13 +7781,13 @@
         <v>1042</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46" s="29">
         <v>30</v>
@@ -7777,7 +7796,7 @@
         <v>5</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H46" s="41">
         <v>150</v>
@@ -7789,13 +7808,13 @@
         <v>1043</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E47" s="29">
         <v>26</v>
@@ -7816,13 +7835,13 @@
         <v>1044</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E48" s="29">
         <v>14</v>
@@ -7843,13 +7862,13 @@
         <v>1045</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E49" s="29">
         <v>20</v>
@@ -7870,13 +7889,13 @@
         <v>1046</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" s="29">
         <v>17</v>
@@ -7897,13 +7916,13 @@
         <v>1047</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E51" s="29">
         <v>19</v>
@@ -7924,13 +7943,13 @@
         <v>1048</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E52" s="29">
         <v>32</v>
@@ -7951,13 +7970,13 @@
         <v>1049</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C53" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E53" s="29">
         <v>12</v>
@@ -7978,13 +7997,13 @@
         <v>1050</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E54" s="29">
         <v>25</v>
@@ -8010,8 +8029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8023,42 +8042,42 @@
     <col min="8" max="16384" width="8.88671875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="57" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+    <row r="1" spans="1:8" s="49" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>49</v>
-      </c>
       <c r="H2" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -8066,13 +8085,13 @@
         <v>1001</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E3" s="29">
         <v>10</v>
@@ -8092,13 +8111,13 @@
         <v>1002</v>
       </c>
       <c r="B4" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="D4" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E4" s="29">
         <v>20</v>
@@ -8118,13 +8137,13 @@
         <v>1003</v>
       </c>
       <c r="B5" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E5" s="29">
         <v>15</v>
@@ -8144,13 +8163,13 @@
         <v>1004</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>60</v>
-      </c>
       <c r="D6" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="29">
         <v>5</v>
@@ -8170,13 +8189,13 @@
         <v>1005</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>62</v>
       </c>
       <c r="E7" s="29">
         <v>30</v>
@@ -8196,13 +8215,13 @@
         <v>1006</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="29">
         <v>12</v>
@@ -8222,13 +8241,13 @@
         <v>1007</v>
       </c>
       <c r="B9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>65</v>
       </c>
       <c r="E9" s="29">
         <v>25</v>
@@ -8237,7 +8256,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="41">
         <v>200</v>
@@ -8248,13 +8267,13 @@
         <v>1008</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="29">
         <v>18</v>
@@ -8263,7 +8282,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="41">
         <v>180</v>
@@ -8274,13 +8293,13 @@
         <v>1009</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="29">
         <v>22</v>
@@ -8289,7 +8308,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="41">
         <v>550</v>
@@ -8300,13 +8319,13 @@
         <v>1010</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="29">
         <v>8</v>
@@ -8315,7 +8334,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="41">
         <v>400</v>
@@ -8326,13 +8345,13 @@
         <v>1011</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="29">
         <v>40</v>
@@ -8341,7 +8360,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="41">
         <v>200</v>
@@ -8352,13 +8371,13 @@
         <v>1012</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="29">
         <v>35</v>
@@ -8367,7 +8386,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="41">
         <v>280</v>
@@ -8378,13 +8397,13 @@
         <v>1013</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E15" s="29">
         <v>14</v>
@@ -8393,7 +8412,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="41">
         <v>700</v>
@@ -8404,13 +8423,13 @@
         <v>1014</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E16" s="29">
         <v>28</v>
@@ -8419,7 +8438,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H16" s="41">
         <v>280</v>
@@ -8430,13 +8449,13 @@
         <v>1015</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E17" s="29">
         <v>12</v>
@@ -8445,7 +8464,7 @@
         <v>25</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="41">
         <v>300</v>
@@ -8456,13 +8475,13 @@
         <v>1016</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="29">
         <v>25</v>
@@ -8471,7 +8490,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="41">
         <v>125</v>
@@ -8482,13 +8501,13 @@
         <v>1017</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="29">
         <v>20</v>
@@ -8497,7 +8516,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19" s="41">
         <v>160</v>
@@ -8508,13 +8527,13 @@
         <v>1018</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="29">
         <v>10</v>
@@ -8523,7 +8542,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H20" s="41">
         <v>500</v>
@@ -8534,13 +8553,13 @@
         <v>1019</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="29">
         <v>15</v>
@@ -8549,7 +8568,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21" s="41">
         <v>150</v>
@@ -8560,13 +8579,13 @@
         <v>1020</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="29">
         <v>18</v>
@@ -8586,13 +8605,13 @@
         <v>1021</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E23" s="29">
         <v>9</v>
@@ -8612,13 +8631,13 @@
         <v>1022</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="29">
         <v>35</v>
@@ -8638,13 +8657,13 @@
         <v>1023</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="29">
         <v>30</v>
@@ -8664,13 +8683,13 @@
         <v>1024</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="29">
         <v>11</v>
@@ -8690,13 +8709,13 @@
         <v>1025</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="29">
         <v>14</v>
@@ -8716,13 +8735,13 @@
         <v>1026</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" s="29">
         <v>16</v>
@@ -8742,13 +8761,13 @@
         <v>1027</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" s="29">
         <v>22</v>
@@ -8768,13 +8787,13 @@
         <v>1028</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="29">
         <v>27</v>
@@ -8794,13 +8813,13 @@
         <v>1029</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E31" s="29">
         <v>13</v>
@@ -8820,13 +8839,13 @@
         <v>1030</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E32" s="29">
         <v>32</v>
@@ -8835,7 +8854,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H32" s="41">
         <v>320</v>
@@ -8846,13 +8865,13 @@
         <v>1031</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="E33" s="29">
         <v>10</v>
@@ -8861,7 +8880,7 @@
         <v>25</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H33" s="41">
         <v>250</v>
@@ -8872,13 +8891,13 @@
         <v>1032</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="29">
         <v>18</v>
@@ -8887,25 +8906,25 @@
         <v>5</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H34" s="41">
         <v>90</v>
       </c>
-      <c r="L34" s="55"/>
+      <c r="L34" s="48"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="29">
         <v>1033</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="29">
         <v>22</v>
@@ -8914,7 +8933,7 @@
         <v>8</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H35" s="41">
         <v>176</v>
@@ -8925,13 +8944,13 @@
         <v>1034</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="29">
         <v>17</v>
@@ -8940,7 +8959,7 @@
         <v>50</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H36" s="41">
         <v>850</v>
@@ -8951,13 +8970,13 @@
         <v>1035</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="29">
         <v>19</v>
@@ -8966,7 +8985,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H37" s="41">
         <v>190</v>
@@ -8977,13 +8996,13 @@
         <v>1036</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="29">
         <v>15</v>
@@ -8992,7 +9011,7 @@
         <v>25</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H38" s="41">
         <v>375</v>
@@ -9003,13 +9022,13 @@
         <v>1037</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" s="29">
         <v>28</v>
@@ -9018,7 +9037,7 @@
         <v>5</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H39" s="41">
         <v>140</v>
@@ -9029,13 +9048,13 @@
         <v>1038</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" s="29">
         <v>24</v>
@@ -9044,7 +9063,7 @@
         <v>8</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H40" s="41">
         <v>192</v>
@@ -9055,13 +9074,13 @@
         <v>1039</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" s="29">
         <v>16</v>
@@ -9070,7 +9089,7 @@
         <v>50</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H41" s="41">
         <v>800</v>
@@ -9081,13 +9100,13 @@
         <v>1040</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" s="29">
         <v>27</v>
@@ -9096,7 +9115,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H42" s="41">
         <v>270</v>
@@ -9107,13 +9126,13 @@
         <v>1041</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="29">
         <v>21</v>
@@ -9122,7 +9141,7 @@
         <v>25</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H43" s="41">
         <v>525</v>
@@ -9133,13 +9152,13 @@
         <v>1042</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E44" s="29">
         <v>30</v>
@@ -9148,7 +9167,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H44" s="41">
         <v>150</v>
@@ -9159,13 +9178,13 @@
         <v>1043</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" s="29">
         <v>26</v>
@@ -9185,13 +9204,13 @@
         <v>1044</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" s="29">
         <v>14</v>
@@ -9211,13 +9230,13 @@
         <v>1045</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E47" s="29">
         <v>20</v>
@@ -9237,13 +9256,13 @@
         <v>1046</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E48" s="29">
         <v>17</v>
@@ -9263,13 +9282,13 @@
         <v>1047</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E49" s="29">
         <v>19</v>
@@ -9289,13 +9308,13 @@
         <v>1048</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" s="29">
         <v>32</v>
@@ -9315,13 +9334,13 @@
         <v>1049</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C51" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>52</v>
       </c>
       <c r="E51" s="29">
         <v>12</v>
@@ -9341,13 +9360,13 @@
         <v>1050</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="E52" s="29">
         <v>25</v>
